--- a/nieruch-powiaty.xlsx
+++ b/nieruch-powiaty.xlsx
@@ -36,10 +36,10 @@
     <t>Podgrupa:</t>
   </si>
   <si>
-    <t>Średnia cena lokali mieszkalnych sprzedanych w ramach transakcji rynkowych</t>
-  </si>
-  <si>
-    <t>Uzyskana jako iloraz wartości i liczby lokali mieszkalnych zaliczonych do danego grupowania. Cena obejmuje wszystkie składniki nieruchomości objętej transakcją. Ceny lokali mieszkalnych sprzedanych na rynku pierwotnym zawierają podatek VAT.</t>
+    <t>Średnia cena za 1 m2 lokali mieszkalnych sprzedanych w ramach transakcji rynkowych</t>
+  </si>
+  <si>
+    <t>Uzyskana jako iloraz wartości i powierzchni użytkowej lokali mieszkalnych zaliczonych do danego grupowania. Cena obejmuje wszystkie składniki nieruchomości objętej transakcją. Ceny lokali mieszkalnych sprzedanych na rynku pierwotnym zawierają podatek VAT.</t>
   </si>
   <si>
     <t>Data ostatniej aktualizacji:</t>
@@ -683,7 +683,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="3">
-        <v>235712</v>
+        <v>4093</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>28</v>
@@ -709,7 +709,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="3">
-        <v>266242</v>
+        <v>4886</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>28</v>
@@ -735,7 +735,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="3">
-        <v>250244</v>
+        <v>4111</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>28</v>
@@ -761,7 +761,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="3">
-        <v>268053</v>
+        <v>4678</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>28</v>
@@ -787,7 +787,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="3">
-        <v>445419</v>
+        <v>8407</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>28</v>
@@ -813,7 +813,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="3">
-        <v>501807</v>
+        <v>9587</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>28</v>
@@ -839,7 +839,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="3">
-        <v>150615</v>
+        <v>3001</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>28</v>
@@ -865,7 +865,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="3">
-        <v>172495</v>
+        <v>3672</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>28</v>
@@ -891,7 +891,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="3">
-        <v>286895</v>
+        <v>5700</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>28</v>
@@ -917,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="3">
-        <v>306860</v>
+        <v>6246</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>28</v>
@@ -943,7 +943,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="3">
-        <v>189037</v>
+        <v>3684</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>28</v>
@@ -969,7 +969,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="3">
-        <v>196481</v>
+        <v>3844</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>28</v>
@@ -995,7 +995,7 @@
         <v>27</v>
       </c>
       <c r="F14" s="3">
-        <v>347325</v>
+        <v>6580</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>28</v>
@@ -1021,7 +1021,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="3">
-        <v>365615</v>
+        <v>7065</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>28</v>
@@ -1047,7 +1047,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="3">
-        <v>224241</v>
+        <v>4651</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>28</v>
@@ -1073,7 +1073,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="3">
-        <v>241052</v>
+        <v>5169</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>28</v>
@@ -1099,7 +1099,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="3">
-        <v>219325</v>
+        <v>4265</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>28</v>
@@ -1125,7 +1125,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="3">
-        <v>262780</v>
+        <v>5466</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>28</v>
@@ -1151,7 +1151,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="3">
-        <v>206343</v>
+        <v>4153</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>28</v>
@@ -1177,7 +1177,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="3">
-        <v>231198</v>
+        <v>4792</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>28</v>
@@ -1203,7 +1203,7 @@
         <v>27</v>
       </c>
       <c r="F22" s="3">
-        <v>366245</v>
+        <v>7178</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>28</v>
@@ -1229,7 +1229,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="3">
-        <v>407549</v>
+        <v>8030</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>28</v>
@@ -1255,7 +1255,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="3">
-        <v>280957</v>
+        <v>5184</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>28</v>
@@ -1281,7 +1281,7 @@
         <v>30</v>
       </c>
       <c r="F25" s="3">
-        <v>297979</v>
+        <v>5690</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>28</v>
@@ -1307,7 +1307,7 @@
         <v>27</v>
       </c>
       <c r="F26" s="3">
-        <v>247458</v>
+        <v>4745</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>28</v>
@@ -1333,7 +1333,7 @@
         <v>30</v>
       </c>
       <c r="F27" s="3">
-        <v>270936</v>
+        <v>5403</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>28</v>
@@ -1359,7 +1359,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="3">
-        <v>262977</v>
+        <v>4924</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>28</v>
@@ -1385,7 +1385,7 @@
         <v>30</v>
       </c>
       <c r="F29" s="3">
-        <v>316578</v>
+        <v>6189</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>28</v>
@@ -1411,7 +1411,7 @@
         <v>27</v>
       </c>
       <c r="F30" s="3">
-        <v>275145</v>
+        <v>5750</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>28</v>
@@ -1437,7 +1437,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="3">
-        <v>300246</v>
+        <v>6489</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>28</v>
@@ -1463,7 +1463,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="3">
-        <v>220511</v>
+        <v>4449</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>28</v>
@@ -1489,7 +1489,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="3">
-        <v>262464</v>
+        <v>5326</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>28</v>
@@ -1515,7 +1515,7 @@
         <v>27</v>
       </c>
       <c r="F34" s="3">
-        <v>284634</v>
+        <v>5532</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>28</v>
@@ -1541,7 +1541,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="3">
-        <v>281287</v>
+        <v>6053</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>28</v>
@@ -1567,7 +1567,7 @@
         <v>27</v>
       </c>
       <c r="F36" s="3">
-        <v>477064</v>
+        <v>9339</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>28</v>
@@ -1593,7 +1593,7 @@
         <v>30</v>
       </c>
       <c r="F37" s="3">
-        <v>545809</v>
+        <v>10923</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>28</v>
@@ -1619,7 +1619,7 @@
         <v>27</v>
       </c>
       <c r="F38" s="3">
-        <v>287524</v>
+        <v>4818</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>28</v>
@@ -1645,7 +1645,7 @@
         <v>30</v>
       </c>
       <c r="F39" s="3">
-        <v>279461</v>
+        <v>5240</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>28</v>
@@ -1671,7 +1671,7 @@
         <v>27</v>
       </c>
       <c r="F40" s="3">
-        <v>218977</v>
+        <v>4394</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>28</v>
@@ -1697,7 +1697,7 @@
         <v>30</v>
       </c>
       <c r="F41" s="3">
-        <v>263674</v>
+        <v>5249</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>28</v>
@@ -1723,7 +1723,7 @@
         <v>27</v>
       </c>
       <c r="F42" s="3">
-        <v>227592</v>
+        <v>4721</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>28</v>
@@ -1749,7 +1749,7 @@
         <v>30</v>
       </c>
       <c r="F43" s="3">
-        <v>270526</v>
+        <v>5470</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>28</v>
@@ -1775,7 +1775,7 @@
         <v>27</v>
       </c>
       <c r="F44" s="3">
-        <v>225920</v>
+        <v>4805</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>28</v>
@@ -1801,7 +1801,7 @@
         <v>30</v>
       </c>
       <c r="F45" s="3">
-        <v>263182</v>
+        <v>5730</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>28</v>
@@ -1827,7 +1827,7 @@
         <v>27</v>
       </c>
       <c r="F46" s="3">
-        <v>247015</v>
+        <v>5031</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>28</v>
@@ -1853,7 +1853,7 @@
         <v>30</v>
       </c>
       <c r="F47" s="3">
-        <v>273193</v>
+        <v>5800</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>28</v>
@@ -1879,7 +1879,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="3">
-        <v>302217</v>
+        <v>5860</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>28</v>
@@ -1905,7 +1905,7 @@
         <v>30</v>
       </c>
       <c r="F49" s="3">
-        <v>306891</v>
+        <v>5824</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>28</v>
@@ -1931,7 +1931,7 @@
         <v>27</v>
       </c>
       <c r="F50" s="3">
-        <v>639180</v>
+        <v>11775</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>28</v>
@@ -1957,7 +1957,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="3">
-        <v>709558</v>
+        <v>13235</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>28</v>
@@ -1983,7 +1983,7 @@
         <v>27</v>
       </c>
       <c r="F52" s="3">
-        <v>312933</v>
+        <v>5744</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>28</v>
@@ -2009,7 +2009,7 @@
         <v>30</v>
       </c>
       <c r="F53" s="3">
-        <v>334933</v>
+        <v>6381</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>28</v>
@@ -2035,7 +2035,7 @@
         <v>27</v>
       </c>
       <c r="F54" s="3">
-        <v>206443</v>
+        <v>4065</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>28</v>
@@ -2061,7 +2061,7 @@
         <v>30</v>
       </c>
       <c r="F55" s="3">
-        <v>257674</v>
+        <v>4498</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>28</v>
@@ -2087,7 +2087,7 @@
         <v>27</v>
       </c>
       <c r="F56" s="3">
-        <v>180689</v>
+        <v>3487</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>28</v>
@@ -2113,7 +2113,7 @@
         <v>30</v>
       </c>
       <c r="F57" s="3">
-        <v>201680</v>
+        <v>4019</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>28</v>
@@ -2139,7 +2139,7 @@
         <v>27</v>
       </c>
       <c r="F58" s="3">
-        <v>321453</v>
+        <v>6269</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>28</v>
@@ -2165,7 +2165,7 @@
         <v>30</v>
       </c>
       <c r="F59" s="3">
-        <v>372612</v>
+        <v>7326</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>28</v>
@@ -2191,7 +2191,7 @@
         <v>27</v>
       </c>
       <c r="F60" s="3">
-        <v>192720</v>
+        <v>3787</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>28</v>
@@ -2217,7 +2217,7 @@
         <v>30</v>
       </c>
       <c r="F61" s="3">
-        <v>227008</v>
+        <v>4554</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>28</v>
@@ -2243,7 +2243,7 @@
         <v>27</v>
       </c>
       <c r="F62" s="3">
-        <v>324696</v>
+        <v>6593</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>28</v>
@@ -2269,7 +2269,7 @@
         <v>30</v>
       </c>
       <c r="F63" s="3">
-        <v>369926</v>
+        <v>7602</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>28</v>
@@ -2295,7 +2295,7 @@
         <v>27</v>
       </c>
       <c r="F64" s="3">
-        <v>278331</v>
+        <v>5238</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>28</v>
@@ -2321,7 +2321,7 @@
         <v>30</v>
       </c>
       <c r="F65" s="3">
-        <v>324728</v>
+        <v>6117</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>28</v>
@@ -2347,7 +2347,7 @@
         <v>27</v>
       </c>
       <c r="F66" s="3">
-        <v>283376</v>
+        <v>5371</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>28</v>
@@ -2373,7 +2373,7 @@
         <v>30</v>
       </c>
       <c r="F67" s="3">
-        <v>322017</v>
+        <v>6455</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>28</v>
@@ -2399,7 +2399,7 @@
         <v>27</v>
       </c>
       <c r="F68" s="3">
-        <v>515771</v>
+        <v>9808</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>28</v>
@@ -2425,7 +2425,7 @@
         <v>30</v>
       </c>
       <c r="F69" s="3">
-        <v>566992</v>
+        <v>11025</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>28</v>
@@ -2451,7 +2451,7 @@
         <v>27</v>
       </c>
       <c r="F70" s="3">
-        <v>504331</v>
+        <v>9021</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>28</v>
@@ -2477,7 +2477,7 @@
         <v>30</v>
       </c>
       <c r="F71" s="3">
-        <v>537018</v>
+        <v>9754</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>28</v>
@@ -2503,7 +2503,7 @@
         <v>27</v>
       </c>
       <c r="F72" s="3">
-        <v>237552</v>
+        <v>4368</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>28</v>
@@ -2529,7 +2529,7 @@
         <v>30</v>
       </c>
       <c r="F73" s="3">
-        <v>277995</v>
+        <v>5210</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>28</v>
@@ -2555,7 +2555,7 @@
         <v>27</v>
       </c>
       <c r="F74" s="3">
-        <v>938276</v>
+        <v>13929</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>28</v>
@@ -2581,7 +2581,7 @@
         <v>30</v>
       </c>
       <c r="F75" s="3">
-        <v>948724</v>
+        <v>15107</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>28</v>
@@ -2607,7 +2607,7 @@
         <v>27</v>
       </c>
       <c r="F76" s="3">
-        <v>305356</v>
+        <v>5276</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>28</v>
@@ -2633,7 +2633,7 @@
         <v>30</v>
       </c>
       <c r="F77" s="3">
-        <v>354604</v>
+        <v>6017</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>28</v>
@@ -2659,7 +2659,7 @@
         <v>27</v>
       </c>
       <c r="F78" s="3">
-        <v>161034</v>
+        <v>2981</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>28</v>
@@ -2685,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="F79" s="3">
-        <v>178168</v>
+        <v>3425</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>28</v>
@@ -2711,7 +2711,7 @@
         <v>27</v>
       </c>
       <c r="F80" s="3">
-        <v>210705</v>
+        <v>4162</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>28</v>
@@ -2737,7 +2737,7 @@
         <v>30</v>
       </c>
       <c r="F81" s="3">
-        <v>231194</v>
+        <v>4474</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>28</v>
@@ -2763,7 +2763,7 @@
         <v>27</v>
       </c>
       <c r="F82" s="3">
-        <v>238273</v>
+        <v>4800</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>28</v>
@@ -2789,7 +2789,7 @@
         <v>30</v>
       </c>
       <c r="F83" s="3">
-        <v>260629</v>
+        <v>5351</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>28</v>
@@ -2815,7 +2815,7 @@
         <v>27</v>
       </c>
       <c r="F84" s="3">
-        <v>209033</v>
+        <v>4180</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>28</v>
@@ -2841,7 +2841,7 @@
         <v>30</v>
       </c>
       <c r="F85" s="3">
-        <v>237511</v>
+        <v>4828</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>28</v>
@@ -2867,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="F86" s="3">
-        <v>252212</v>
+        <v>4668</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>28</v>
@@ -2893,7 +2893,7 @@
         <v>30</v>
       </c>
       <c r="F87" s="3">
-        <v>279802</v>
+        <v>5305</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>28</v>
@@ -2919,7 +2919,7 @@
         <v>27</v>
       </c>
       <c r="F88" s="3">
-        <v>165439</v>
+        <v>3309</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>28</v>
@@ -2945,7 +2945,7 @@
         <v>30</v>
       </c>
       <c r="F89" s="3">
-        <v>180006</v>
+        <v>3642</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>28</v>
@@ -2971,7 +2971,7 @@
         <v>27</v>
       </c>
       <c r="F90" s="3">
-        <v>223415</v>
+        <v>4539</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>28</v>
@@ -2997,7 +2997,7 @@
         <v>30</v>
       </c>
       <c r="F91" s="3">
-        <v>236515</v>
+        <v>4927</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>28</v>
@@ -3023,7 +3023,7 @@
         <v>27</v>
       </c>
       <c r="F92" s="3">
-        <v>307965</v>
+        <v>5863</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>28</v>
@@ -3049,7 +3049,7 @@
         <v>30</v>
       </c>
       <c r="F93" s="3">
-        <v>332242</v>
+        <v>6488</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>28</v>
@@ -3075,7 +3075,7 @@
         <v>27</v>
       </c>
       <c r="F94" s="3">
-        <v>201697</v>
+        <v>3934</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>28</v>
@@ -3101,7 +3101,7 @@
         <v>30</v>
       </c>
       <c r="F95" s="3">
-        <v>238710</v>
+        <v>4770</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>28</v>
@@ -3127,7 +3127,7 @@
         <v>27</v>
       </c>
       <c r="F96" s="3">
-        <v>174482</v>
+        <v>3476</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>28</v>
@@ -3153,7 +3153,7 @@
         <v>30</v>
       </c>
       <c r="F97" s="3">
-        <v>183675</v>
+        <v>3819</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>28</v>
@@ -3179,7 +3179,7 @@
         <v>27</v>
       </c>
       <c r="F98" s="3">
-        <v>176117</v>
+        <v>3613</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>28</v>
@@ -3205,7 +3205,7 @@
         <v>30</v>
       </c>
       <c r="F99" s="3">
-        <v>191947</v>
+        <v>4090</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>28</v>
@@ -3231,7 +3231,7 @@
         <v>27</v>
       </c>
       <c r="F100" s="3">
-        <v>199889</v>
+        <v>3726</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>28</v>
@@ -3257,7 +3257,7 @@
         <v>30</v>
       </c>
       <c r="F101" s="3">
-        <v>225752</v>
+        <v>4298</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>28</v>
@@ -3283,7 +3283,7 @@
         <v>27</v>
       </c>
       <c r="F102" s="3">
-        <v>219238</v>
+        <v>4396</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>28</v>
@@ -3309,7 +3309,7 @@
         <v>30</v>
       </c>
       <c r="F103" s="3">
-        <v>212933</v>
+        <v>4640</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>28</v>
@@ -3335,7 +3335,7 @@
         <v>27</v>
       </c>
       <c r="F104" s="3">
-        <v>201166</v>
+        <v>4130</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>28</v>
@@ -3361,7 +3361,7 @@
         <v>30</v>
       </c>
       <c r="F105" s="3">
-        <v>214289</v>
+        <v>4586</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>28</v>
@@ -3387,7 +3387,7 @@
         <v>27</v>
       </c>
       <c r="F106" s="3">
-        <v>162977</v>
+        <v>3524</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>28</v>
@@ -3413,7 +3413,7 @@
         <v>30</v>
       </c>
       <c r="F107" s="3">
-        <v>202095</v>
+        <v>4230</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>28</v>
@@ -3439,7 +3439,7 @@
         <v>27</v>
       </c>
       <c r="F108" s="3">
-        <v>273459</v>
+        <v>5510</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>28</v>
@@ -3465,7 +3465,7 @@
         <v>30</v>
       </c>
       <c r="F109" s="3">
-        <v>291016</v>
+        <v>6009</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>28</v>
@@ -3491,7 +3491,7 @@
         <v>27</v>
       </c>
       <c r="F110" s="3">
-        <v>180507</v>
+        <v>3675</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>28</v>
@@ -3517,7 +3517,7 @@
         <v>30</v>
       </c>
       <c r="F111" s="3">
-        <v>200634</v>
+        <v>4044</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>28</v>
@@ -3543,7 +3543,7 @@
         <v>27</v>
       </c>
       <c r="F112" s="3">
-        <v>229040</v>
+        <v>4204</v>
       </c>
       <c r="G112" s="0" t="s">
         <v>28</v>
@@ -3569,7 +3569,7 @@
         <v>30</v>
       </c>
       <c r="F113" s="3">
-        <v>279886</v>
+        <v>5049</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>28</v>
@@ -3595,7 +3595,7 @@
         <v>27</v>
       </c>
       <c r="F114" s="3">
-        <v>283724</v>
+        <v>5684</v>
       </c>
       <c r="G114" s="0" t="s">
         <v>28</v>
@@ -3621,7 +3621,7 @@
         <v>30</v>
       </c>
       <c r="F115" s="3">
-        <v>342702</v>
+        <v>6592</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>28</v>
@@ -3647,7 +3647,7 @@
         <v>27</v>
       </c>
       <c r="F116" s="3">
-        <v>254923</v>
+        <v>4994</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>28</v>
@@ -3673,7 +3673,7 @@
         <v>30</v>
       </c>
       <c r="F117" s="3">
-        <v>276312</v>
+        <v>5561</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>28</v>
@@ -3699,7 +3699,7 @@
         <v>27</v>
       </c>
       <c r="F118" s="3">
-        <v>314346</v>
+        <v>6206</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>28</v>
@@ -3725,7 +3725,7 @@
         <v>30</v>
       </c>
       <c r="F119" s="3">
-        <v>339497</v>
+        <v>6851</v>
       </c>
       <c r="G119" s="0" t="s">
         <v>28</v>
@@ -3751,7 +3751,7 @@
         <v>27</v>
       </c>
       <c r="F120" s="3">
-        <v>212757</v>
+        <v>4178</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>28</v>
@@ -3777,7 +3777,7 @@
         <v>30</v>
       </c>
       <c r="F121" s="3">
-        <v>262944</v>
+        <v>5344</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>28</v>
@@ -3803,7 +3803,7 @@
         <v>27</v>
       </c>
       <c r="F122" s="3">
-        <v>191085</v>
+        <v>3918</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>28</v>
@@ -3829,7 +3829,7 @@
         <v>30</v>
       </c>
       <c r="F123" s="3">
-        <v>230854</v>
+        <v>4763</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>28</v>
@@ -3855,7 +3855,7 @@
         <v>27</v>
       </c>
       <c r="F124" s="3">
-        <v>259298</v>
+        <v>4042</v>
       </c>
       <c r="G124" s="0" t="s">
         <v>28</v>
@@ -3881,7 +3881,7 @@
         <v>30</v>
       </c>
       <c r="F125" s="3">
-        <v>263224</v>
+        <v>4640</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>28</v>
@@ -3907,7 +3907,7 @@
         <v>27</v>
       </c>
       <c r="F126" s="3">
-        <v>382816</v>
+        <v>7371</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>28</v>
@@ -3933,7 +3933,7 @@
         <v>30</v>
       </c>
       <c r="F127" s="3">
-        <v>448750</v>
+        <v>8598</v>
       </c>
       <c r="G127" s="0" t="s">
         <v>28</v>
@@ -4011,7 +4011,7 @@
         <v>27</v>
       </c>
       <c r="F130" s="3">
-        <v>359275</v>
+        <v>6362</v>
       </c>
       <c r="G130" s="0" t="s">
         <v>28</v>
@@ -4037,7 +4037,7 @@
         <v>30</v>
       </c>
       <c r="F131" s="3">
-        <v>386983</v>
+        <v>7314</v>
       </c>
       <c r="G131" s="0" t="s">
         <v>28</v>
@@ -4063,7 +4063,7 @@
         <v>27</v>
       </c>
       <c r="F132" s="3">
-        <v>464743</v>
+        <v>8751</v>
       </c>
       <c r="G132" s="0" t="s">
         <v>28</v>
@@ -4089,7 +4089,7 @@
         <v>30</v>
       </c>
       <c r="F133" s="3">
-        <v>536636</v>
+        <v>11131</v>
       </c>
       <c r="G133" s="0" t="s">
         <v>28</v>
